--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_BirthRate_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2014_BirthRate_o.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C145" t="n">
